--- a/medicine/Pharmacie/Basiliximab/Basiliximab.xlsx
+++ b/medicine/Pharmacie/Basiliximab/Basiliximab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Basiliximab (nom commercial Simulect) est un anticorps monoclonal humanisé (chimère homme-souris). Il cible l'IL-2, précisément la chaîne α du CD25, récepteur des cellules T. Il est utilisé pour prévenir le rejet de greffe d'organe, notamment du rein. Simulect est exploité par le laboratoire Novartis et a été approuvé par la Food and Drug Administration (FDA) en 1998 ainsi que par l'agence européenne du médicament en 1999.
@@ -512,9 +524,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Basiliximab est un immunosuppresseur utilisé pour induire la tolérance immunologique d'une allogreffe essentiellement rénale en association avec la ciclosporine et l'azathioprine[1]. Il a été rapporté que certains cas de lichen plan ont été traités avec succès par le basiliximab comme une alternative à la ciclosporine. Les effets indésirables sont ceux que l'on rencontre habituellement avec ces traitements immunosuppresseurs.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Basiliximab est un immunosuppresseur utilisé pour induire la tolérance immunologique d'une allogreffe essentiellement rénale en association avec la ciclosporine et l'azathioprine. Il a été rapporté que certains cas de lichen plan ont été traités avec succès par le basiliximab comme une alternative à la ciclosporine. Les effets indésirables sont ceux que l'on rencontre habituellement avec ces traitements immunosuppresseurs.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Basiliximab vient bloquer la chaîne alpha de la sous-unité du récepteur de l'IL2 sur la surface des lymphocytes T activés . Il bloque ainsi le récepteur de signalisation. Il inhibe la réplication  des cellules T qui active physiologiquement le cellules B, qui produisent les anticorps responsable du rejet de  greffe[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Basiliximab vient bloquer la chaîne alpha de la sous-unité du récepteur de l'IL2 sur la surface des lymphocytes T activés . Il bloque ainsi le récepteur de signalisation. Il inhibe la réplication  des cellules T qui active physiologiquement le cellules B, qui produisent les anticorps responsable du rejet de  greffe,.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un anticorps monoclonal de l'isotype IgG1 dirigé contre le CD25[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un anticorps monoclonal de l'isotype IgG1 dirigé contre le CD25,.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Situation administrative</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En France ce médicament est réservé à l'usage hospitalier et la prescription à des équipes autorisées à pratiquer des greffes d'organes. L'autorisation de mise sur le marché a été modifiée le 28/11/2014 par l'agence européenne du médicament.
 </t>
